--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyotm\Documents\OpenEDS 2021 3d point cloud segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DC11B1-45F7-4CAC-AA77-C7A8FC78BDFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB07E22A-D075-4E5F-BD38-04CA38845BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -76,6 +76,36 @@
   </si>
   <si>
     <t>Num Points (Training)</t>
+  </si>
+  <si>
+    <t>3 Minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pointnet2 (K=5, Interpolation with votes = 3, class weights loss) </t>
+  </si>
+  <si>
+    <t>Pointnet2 MSG (K=5, Interpolation with votes = 3, class weights loss)</t>
+  </si>
+  <si>
+    <t>Pointnet 2 MSG (K = 5, votes = 3, class weighted loss)</t>
+  </si>
+  <si>
+    <t>~0.71</t>
+  </si>
+  <si>
+    <t>~0.657</t>
+  </si>
+  <si>
+    <t>DGCNN (K = 5, votes = 3, weighted loss)</t>
+  </si>
+  <si>
+    <t>3 min</t>
+  </si>
+  <si>
+    <t>DGCNN (K = 5, votes = 3, weighted loss and modified architecture)</t>
+  </si>
+  <si>
+    <t>1.5 min</t>
   </si>
 </sst>
 </file>
@@ -402,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,16 +582,107 @@
         <v>10096</v>
       </c>
       <c r="C9">
-        <v>0.71499999999999997</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="D9">
-        <v>0.65700000000000003</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E9">
         <v>0.6</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>12000</v>
+      </c>
+      <c r="C11">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E11">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>12000</v>
+      </c>
+      <c r="C12">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="D12">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>10096</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>10096</v>
+      </c>
+      <c r="C15">
+        <v>0.6</v>
+      </c>
+      <c r="D15">
+        <v>0.45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>10096</v>
+      </c>
+      <c r="C16">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D16">
+        <v>0.63</v>
+      </c>
+      <c r="E16">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
